--- a/PREPARE-TIMES-NZ/output/SuppXLS/Trades/ScenTrade_TRADE_PARMS.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Trades/ScenTrade_TRADE_PARMS.xlsx
@@ -503,170 +503,175 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>VAROM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00248362891109477</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TU_PET*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>LIFE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00538337115666179</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TU_LPG*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>CAP2ACT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00252841765861999</t>
+          <t>31.536</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TU_DSL*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>PEAK(CON)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00261893423255859</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TU_FOL*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>AFA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00252841765861999</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TU_DID*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>EFF</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00252841765861999</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TU_DIJ*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>NCAP_ILED</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00251030880245087</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TU_JET*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>NCAP_PASTI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TU_OTH*</t>
+          <t>TB_ELC_*</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>INVCOST</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.000188040616773223</t>
+          <t>480.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TU_COA*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>ACT_COST</t>
+          <t>FIXOM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.000327439423706614</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TU_COL*</t>
+          <t>TB_ELC*</t>
         </is>
       </c>
     </row>
@@ -758,7 +763,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VAROM</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -769,7 +774,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00248362891109477</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -777,7 +782,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_PET*</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -808,7 +813,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIFE</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -819,7 +824,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.00538337115666179</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -827,7 +832,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_LPG*</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -858,7 +863,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CAP2ACT</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -869,7 +874,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>31.536</t>
+          <t>0.00252841765861999</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -877,7 +882,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_DSL*</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -908,7 +913,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PEAK(CON)</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -919,7 +924,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.00261893423255859</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -927,7 +932,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_FOL*</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -958,7 +963,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AFA</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -969,7 +974,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.00252841765861999</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -977,7 +982,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_DID*</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1008,7 +1013,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EFF</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1019,7 +1024,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.00252841765861999</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1027,7 +1032,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_DIJ*</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1058,7 +1063,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NCAP_ILED</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1069,7 +1074,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0.00251030880245087</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1077,7 +1082,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_JET*</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1108,20 +1113,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NCAP_PASTI</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+          <t>ACT_COST</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v/>
       </c>
       <c r="E23" t="n">
         <v/>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1129,7 +1132,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TB_ELC_*</t>
+          <t>TU_OTH*</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1160,7 +1163,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>INVCOST</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1171,7 +1174,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>480.0</t>
+          <t>0.000188040616773223</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1179,7 +1182,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_COA*</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1210,7 +1213,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FIXOM</t>
+          <t>ACT_COST</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1221,7 +1224,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.000327439423706614</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1229,7 +1232,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TB_ELC*</t>
+          <t>TU_COL*</t>
         </is>
       </c>
       <c r="I25" t="n">
